--- a/ImageFormat_SourceCode/setting_2D.xlsx
+++ b/ImageFormat_SourceCode/setting_2D.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08C1C18-491F-478F-B52B-B442D90CB63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5FAE68-F802-4836-80C9-92AB3A4998A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="编码对比" sheetId="1" r:id="rId1"/>
     <sheet name="实验设置" sheetId="2" r:id="rId2"/>
     <sheet name="转码设置" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Support Preview" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">编码对比!$C$1:$M$3</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="212">
   <si>
     <t>GIF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,17 +897,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注(8bit)：1、WebP只支持420采样。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注(16bit)：1、WebP不支持16bit.2、BPG最高支持12bit</t>
-  </si>
-  <si>
     <t>12bit</t>
   </si>
   <si>
     <t>10bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPEG-XT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avifenc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：1、WebP只支持8bit420采样。2、AV1、BPG最高支持12bit。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +1166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1236,6 +1241,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1249,7 +1335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,18 +1448,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="11" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1389,58 +1469,49 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1449,34 +1520,46 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - 着色 2" xfId="7" builtinId="35"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="注释" xfId="4" builtinId="10"/>
     <cellStyle name="着色 2" xfId="5" builtinId="33"/>
     <cellStyle name="着色 5" xfId="6" builtinId="45"/>
-    <cellStyle name="注释" xfId="4" builtinId="10"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1761,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1995,7 +2078,7 @@
       <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" ht="54" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="48" t="s">
         <v>169</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2040,7 +2123,7 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="8" t="s">
         <v>164</v>
       </c>
@@ -2083,7 +2166,7 @@
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="8" t="s">
         <v>84</v>
       </c>
@@ -2120,7 +2203,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>170</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2167,8 +2250,8 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="27" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="47" t="s">
         <v>159</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -2210,8 +2293,8 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="20" t="s">
         <v>72</v>
       </c>
@@ -2251,7 +2334,7 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="8" t="s">
         <v>168</v>
       </c>
@@ -2351,7 +2434,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="51" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2382,8 +2465,8 @@
       <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="53" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -2413,8 +2496,8 @@
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="30" t="s">
         <v>60</v>
       </c>
@@ -2442,7 +2525,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="8" t="s">
         <v>84</v>
       </c>
@@ -2473,7 +2556,7 @@
       <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="50" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2508,8 +2591,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="47" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2539,8 +2622,8 @@
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="8" t="s">
         <v>159</v>
       </c>
@@ -2568,7 +2651,7 @@
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="8" t="s">
         <v>168</v>
       </c>
@@ -2645,10 +2728,10 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="59"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="32" t="s">
         <v>108</v>
       </c>
@@ -2680,7 +2763,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="35" t="s">
@@ -2696,10 +2779,10 @@
       <c r="F2" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="58"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="26" t="s">
         <v>141</v>
       </c>
@@ -2721,11 +2804,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="56" t="s">
         <v>164</v>
       </c>
       <c r="D3" s="32" t="s">
@@ -2740,7 +2823,7 @@
       <c r="G3" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="58"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="28" t="s">
         <v>139</v>
       </c>
@@ -2762,9 +2845,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="32" t="s">
         <v>157</v>
       </c>
@@ -2777,7 +2860,7 @@
       <c r="G4" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H4" s="58"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="26" t="s">
         <v>141</v>
       </c>
@@ -2795,7 +2878,7 @@
       <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="35" t="s">
         <v>84</v>
       </c>
@@ -2814,7 +2897,7 @@
       <c r="G5" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="H5" s="58"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="26" t="s">
         <v>141</v>
       </c>
@@ -2836,7 +2919,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="50" t="s">
         <v>170</v>
       </c>
       <c r="B6" s="35" t="s">
@@ -2855,7 +2938,7 @@
         <v>150</v>
       </c>
       <c r="G6" s="29"/>
-      <c r="H6" s="58"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="28" t="s">
         <v>139</v>
       </c>
@@ -2877,8 +2960,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="47" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="32" t="s">
@@ -2894,7 +2977,7 @@
         <v>151</v>
       </c>
       <c r="G7" s="29"/>
-      <c r="H7" s="58"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="26" t="s">
         <v>12</v>
       </c>
@@ -2916,8 +2999,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="32" t="s">
         <v>159</v>
       </c>
@@ -2931,7 +3014,7 @@
         <v>150</v>
       </c>
       <c r="G8" s="29"/>
-      <c r="H8" s="58"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="28" t="s">
         <v>139</v>
       </c>
@@ -2953,7 +3036,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="35" t="s">
         <v>168</v>
       </c>
@@ -2970,7 +3053,7 @@
         <v>150</v>
       </c>
       <c r="G9" s="29"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="55"/>
       <c r="I9" s="28" t="s">
         <v>139</v>
       </c>
@@ -3009,1537 +3092,1618 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE997EE-6AF0-45C6-96DA-238F98F10E6B}">
-  <dimension ref="A1:AJ144"/>
+  <dimension ref="A1:AJ143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="22" customWidth="1"/>
-    <col min="7" max="10" width="8.625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="21" customWidth="1"/>
-    <col min="12" max="13" width="10.25" style="22" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="21" customWidth="1"/>
-    <col min="15" max="18" width="8.625" style="22" customWidth="1"/>
+    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="22" customWidth="1"/>
+    <col min="7" max="10" width="10.625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="21" customWidth="1"/>
+    <col min="12" max="13" width="10.625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="21" customWidth="1"/>
+    <col min="15" max="18" width="10.625" style="22" customWidth="1"/>
     <col min="19" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="50" t="s">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="M1" s="71" t="s">
+      <c r="J1" s="60"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="N1" s="46"/>
+      <c r="O1" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="48"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="41">
+        <v>420</v>
+      </c>
+      <c r="H2" s="42">
+        <v>444</v>
+      </c>
+      <c r="I2" s="41">
+        <v>420</v>
+      </c>
+      <c r="J2" s="42">
+        <v>444</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="41">
+        <v>420</v>
+      </c>
+      <c r="P2" s="42">
+        <v>444</v>
+      </c>
+      <c r="Q2" s="41">
+        <v>420</v>
+      </c>
+      <c r="R2" s="42">
+        <v>444</v>
+      </c>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="43">
-        <v>420</v>
-      </c>
-      <c r="H2" s="44">
-        <v>444</v>
-      </c>
-      <c r="I2" s="43">
-        <v>420</v>
-      </c>
-      <c r="J2" s="44">
-        <v>444</v>
-      </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="43">
-        <v>420</v>
-      </c>
-      <c r="P2" s="44">
-        <v>444</v>
-      </c>
-      <c r="Q2" s="43">
-        <v>420</v>
-      </c>
-      <c r="R2" s="44">
-        <v>444</v>
-      </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="50">
+      <c r="E3" s="58">
         <v>1</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="G3" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="M3" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="R3" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="48" t="s">
+      <c r="G3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="R3" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="48" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+    </row>
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="48" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+    </row>
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-    </row>
-    <row r="7" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="48" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+    </row>
+    <row r="7" spans="1:36" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="40"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
-    </row>
-    <row r="8" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="50" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+    </row>
+    <row r="8" spans="1:36" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="57"/>
+      <c r="B8" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="58">
         <v>2</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="M8" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="R8" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="48" t="s">
+      <c r="G8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="N8" s="58"/>
+      <c r="O8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="P8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="R8" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+    </row>
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="60"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="48" t="s">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <v>3</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="R10" s="41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
-      <c r="B11" s="48" t="s">
+      <c r="G10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="46"/>
+      <c r="L10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="N10" s="46"/>
+      <c r="O10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q10" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="R10" s="45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57"/>
+      <c r="B11" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="46">
         <v>4</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="I11" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="R11" s="41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
+      <c r="G11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="46"/>
+      <c r="L11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q11" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="R11" s="45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+    </row>
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <v>5</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="42" t="s">
+      <c r="G13" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="J13" s="42" t="s">
+      <c r="I13" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="K13" s="49"/>
-      <c r="L13" s="42" t="s">
+      <c r="K13" s="46"/>
+      <c r="L13" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="42" t="s">
+      <c r="N13" s="46"/>
+      <c r="O13" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="P13" s="40" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="50" t="s">
+      <c r="Q13" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="R13" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <v>6</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="K14" s="49"/>
-      <c r="L14" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="M14" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="42" t="s">
+      <c r="G14" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="46"/>
+      <c r="L14" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" s="46"/>
+      <c r="O14" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="R14" s="42" t="s">
+      <c r="P14" s="40" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="48" t="s">
+      <c r="Q14" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="46">
         <v>7</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="H15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="I15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="K15" s="49"/>
-      <c r="L15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="M15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="N15" s="36"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="R15" s="41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="50" t="s">
+      <c r="G15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" s="46"/>
+      <c r="L15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="M15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="N15" s="46"/>
+      <c r="O15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="P15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q15" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="R15" s="45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="58">
         <v>8</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="J16" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="K16" s="61"/>
-      <c r="L16" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="M16" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="R16" s="62" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="48" t="s">
+      <c r="G16" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" s="58"/>
+      <c r="O16" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="P16" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="R16" s="64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
       <c r="Q17" s="64"/>
       <c r="R17" s="64"/>
     </row>
-    <row r="18" spans="1:18" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-    </row>
-    <row r="20" spans="1:18" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="45" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="46">
+        <v>9</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="K18" s="46"/>
+      <c r="L18" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="M18" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="N18" s="46"/>
+      <c r="O18" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="43" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
+    </row>
+    <row r="20" spans="1:18" s="43" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+    </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
     </row>
     <row r="33" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
     </row>
     <row r="34" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
     </row>
     <row r="35" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
     </row>
     <row r="36" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
     </row>
     <row r="37" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
     </row>
     <row r="38" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
     </row>
     <row r="39" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
     </row>
     <row r="40" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
     </row>
     <row r="41" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
     </row>
     <row r="42" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
     </row>
     <row r="43" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
     </row>
     <row r="44" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
     </row>
     <row r="45" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
     </row>
     <row r="46" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
     </row>
     <row r="47" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
     </row>
     <row r="48" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
     </row>
     <row r="49" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
     </row>
     <row r="50" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
     </row>
     <row r="51" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K51" s="45"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
     </row>
     <row r="52" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K52" s="45"/>
-      <c r="L52" s="45"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
     </row>
     <row r="53" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
     </row>
     <row r="54" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
     </row>
     <row r="55" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
     </row>
     <row r="56" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
     </row>
     <row r="57" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
     </row>
     <row r="58" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
     </row>
     <row r="59" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
     </row>
     <row r="60" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
     </row>
     <row r="61" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
     </row>
     <row r="62" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
     </row>
     <row r="63" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
     </row>
     <row r="64" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
     </row>
     <row r="65" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
     </row>
     <row r="66" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K66" s="45"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="45"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
     </row>
     <row r="67" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="45"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
     </row>
     <row r="68" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
     </row>
     <row r="69" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
     </row>
     <row r="70" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
     </row>
     <row r="71" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="45"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
     </row>
     <row r="72" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
     </row>
     <row r="73" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
     </row>
     <row r="74" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
     </row>
     <row r="75" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
     </row>
     <row r="76" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="43"/>
     </row>
     <row r="77" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
     </row>
     <row r="78" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
     </row>
     <row r="79" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K79" s="45"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
     </row>
     <row r="80" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
     </row>
     <row r="81" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="45"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
     </row>
     <row r="82" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K82" s="45"/>
-      <c r="L82" s="45"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="45"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
     </row>
     <row r="83" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K83" s="45"/>
-      <c r="L83" s="45"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="45"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
     </row>
     <row r="84" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
     </row>
     <row r="85" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K85" s="45"/>
-      <c r="L85" s="45"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="45"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
     </row>
     <row r="86" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K86" s="45"/>
-      <c r="L86" s="45"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
     </row>
     <row r="87" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K87" s="45"/>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="45"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
     </row>
     <row r="88" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K88" s="45"/>
-      <c r="L88" s="45"/>
-      <c r="M88" s="45"/>
-      <c r="N88" s="45"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
     </row>
     <row r="89" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K89" s="45"/>
-      <c r="L89" s="45"/>
-      <c r="M89" s="45"/>
-      <c r="N89" s="45"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
     </row>
     <row r="90" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="45"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
     </row>
     <row r="91" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K91" s="45"/>
-      <c r="L91" s="45"/>
-      <c r="M91" s="45"/>
-      <c r="N91" s="45"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
     </row>
     <row r="92" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K92" s="45"/>
-      <c r="L92" s="45"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
     </row>
     <row r="93" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K93" s="45"/>
-      <c r="L93" s="45"/>
-      <c r="M93" s="45"/>
-      <c r="N93" s="45"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
     </row>
     <row r="94" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K94" s="45"/>
-      <c r="L94" s="45"/>
-      <c r="M94" s="45"/>
-      <c r="N94" s="45"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
     </row>
     <row r="95" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="45"/>
-      <c r="N95" s="45"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
     </row>
     <row r="96" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K96" s="45"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
     </row>
     <row r="97" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K97" s="45"/>
-      <c r="L97" s="45"/>
-      <c r="M97" s="45"/>
-      <c r="N97" s="45"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
     </row>
     <row r="98" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K98" s="45"/>
-      <c r="L98" s="45"/>
-      <c r="M98" s="45"/>
-      <c r="N98" s="45"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
     </row>
     <row r="99" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K99" s="45"/>
-      <c r="L99" s="45"/>
-      <c r="M99" s="45"/>
-      <c r="N99" s="45"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
     </row>
     <row r="100" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K100" s="45"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="45"/>
-      <c r="N100" s="45"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
     </row>
     <row r="101" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K101" s="45"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="45"/>
-      <c r="N101" s="45"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
     </row>
     <row r="102" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K102" s="45"/>
-      <c r="L102" s="45"/>
-      <c r="M102" s="45"/>
-      <c r="N102" s="45"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
     </row>
     <row r="103" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K103" s="45"/>
-      <c r="L103" s="45"/>
-      <c r="M103" s="45"/>
-      <c r="N103" s="45"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
     </row>
     <row r="104" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K104" s="45"/>
-      <c r="L104" s="45"/>
-      <c r="M104" s="45"/>
-      <c r="N104" s="45"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
     </row>
     <row r="105" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K105" s="45"/>
-      <c r="L105" s="45"/>
-      <c r="M105" s="45"/>
-      <c r="N105" s="45"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
     </row>
     <row r="106" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K106" s="45"/>
-      <c r="L106" s="45"/>
-      <c r="M106" s="45"/>
-      <c r="N106" s="45"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
     </row>
     <row r="107" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K107" s="45"/>
-      <c r="L107" s="45"/>
-      <c r="M107" s="45"/>
-      <c r="N107" s="45"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="43"/>
     </row>
     <row r="108" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K108" s="45"/>
-      <c r="L108" s="45"/>
-      <c r="M108" s="45"/>
-      <c r="N108" s="45"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
     </row>
     <row r="109" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K109" s="45"/>
-      <c r="L109" s="45"/>
-      <c r="M109" s="45"/>
-      <c r="N109" s="45"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
     </row>
     <row r="110" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K110" s="45"/>
-      <c r="L110" s="45"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="45"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
     </row>
     <row r="111" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K111" s="45"/>
-      <c r="L111" s="45"/>
-      <c r="M111" s="45"/>
-      <c r="N111" s="45"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="43"/>
     </row>
     <row r="112" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K112" s="45"/>
-      <c r="L112" s="45"/>
-      <c r="M112" s="45"/>
-      <c r="N112" s="45"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
+      <c r="M112" s="43"/>
+      <c r="N112" s="43"/>
     </row>
     <row r="113" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K113" s="45"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="45"/>
-      <c r="N113" s="45"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
+      <c r="M113" s="43"/>
+      <c r="N113" s="43"/>
     </row>
     <row r="114" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K114" s="45"/>
-      <c r="L114" s="45"/>
-      <c r="M114" s="45"/>
-      <c r="N114" s="45"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
+      <c r="M114" s="43"/>
+      <c r="N114" s="43"/>
     </row>
     <row r="115" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K115" s="45"/>
-      <c r="L115" s="45"/>
-      <c r="M115" s="45"/>
-      <c r="N115" s="45"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
+      <c r="M115" s="43"/>
+      <c r="N115" s="43"/>
     </row>
     <row r="116" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K116" s="45"/>
-      <c r="L116" s="45"/>
-      <c r="M116" s="45"/>
-      <c r="N116" s="45"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="43"/>
     </row>
     <row r="117" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K117" s="45"/>
-      <c r="L117" s="45"/>
-      <c r="M117" s="45"/>
-      <c r="N117" s="45"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="43"/>
     </row>
     <row r="118" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K118" s="45"/>
-      <c r="L118" s="45"/>
-      <c r="M118" s="45"/>
-      <c r="N118" s="45"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="43"/>
     </row>
     <row r="119" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K119" s="45"/>
-      <c r="L119" s="45"/>
-      <c r="M119" s="45"/>
-      <c r="N119" s="45"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="43"/>
     </row>
     <row r="120" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K120" s="45"/>
-      <c r="L120" s="45"/>
-      <c r="M120" s="45"/>
-      <c r="N120" s="45"/>
+      <c r="K120" s="43"/>
+      <c r="L120" s="43"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="43"/>
     </row>
     <row r="121" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K121" s="45"/>
-      <c r="L121" s="45"/>
-      <c r="M121" s="45"/>
-      <c r="N121" s="45"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="43"/>
     </row>
     <row r="122" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K122" s="45"/>
-      <c r="L122" s="45"/>
-      <c r="M122" s="45"/>
-      <c r="N122" s="45"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
     </row>
     <row r="123" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K123" s="45"/>
-      <c r="L123" s="45"/>
-      <c r="M123" s="45"/>
-      <c r="N123" s="45"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43"/>
+      <c r="M123" s="43"/>
+      <c r="N123" s="43"/>
     </row>
     <row r="124" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K124" s="45"/>
-      <c r="L124" s="45"/>
-      <c r="M124" s="45"/>
-      <c r="N124" s="45"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43"/>
     </row>
     <row r="125" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K125" s="45"/>
-      <c r="L125" s="45"/>
-      <c r="M125" s="45"/>
-      <c r="N125" s="45"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="43"/>
     </row>
     <row r="126" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K126" s="45"/>
-      <c r="L126" s="45"/>
-      <c r="M126" s="45"/>
-      <c r="N126" s="45"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="43"/>
+      <c r="N126" s="43"/>
     </row>
     <row r="127" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K127" s="45"/>
-      <c r="L127" s="45"/>
-      <c r="M127" s="45"/>
-      <c r="N127" s="45"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="43"/>
     </row>
     <row r="128" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K128" s="45"/>
-      <c r="L128" s="45"/>
-      <c r="M128" s="45"/>
-      <c r="N128" s="45"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="43"/>
     </row>
     <row r="129" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K129" s="45"/>
-      <c r="L129" s="45"/>
-      <c r="M129" s="45"/>
-      <c r="N129" s="45"/>
+      <c r="K129" s="43"/>
+      <c r="L129" s="43"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="43"/>
     </row>
     <row r="130" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K130" s="45"/>
-      <c r="L130" s="45"/>
-      <c r="M130" s="45"/>
-      <c r="N130" s="45"/>
+      <c r="K130" s="43"/>
+      <c r="L130" s="43"/>
+      <c r="M130" s="43"/>
+      <c r="N130" s="43"/>
     </row>
     <row r="131" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K131" s="45"/>
-      <c r="L131" s="45"/>
-      <c r="M131" s="45"/>
-      <c r="N131" s="45"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="43"/>
+      <c r="M131" s="43"/>
+      <c r="N131" s="43"/>
     </row>
     <row r="132" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K132" s="45"/>
-      <c r="L132" s="45"/>
-      <c r="M132" s="45"/>
-      <c r="N132" s="45"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="43"/>
+      <c r="N132" s="43"/>
     </row>
     <row r="133" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K133" s="45"/>
-      <c r="L133" s="45"/>
-      <c r="M133" s="45"/>
-      <c r="N133" s="45"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
+      <c r="M133" s="43"/>
+      <c r="N133" s="43"/>
     </row>
     <row r="134" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K134" s="45"/>
-      <c r="L134" s="45"/>
-      <c r="M134" s="45"/>
-      <c r="N134" s="45"/>
+      <c r="K134" s="43"/>
+      <c r="L134" s="43"/>
+      <c r="M134" s="43"/>
+      <c r="N134" s="43"/>
     </row>
     <row r="135" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K135" s="45"/>
-      <c r="L135" s="45"/>
-      <c r="M135" s="45"/>
-      <c r="N135" s="45"/>
+      <c r="K135" s="43"/>
+      <c r="L135" s="43"/>
+      <c r="M135" s="43"/>
+      <c r="N135" s="43"/>
     </row>
     <row r="136" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K136" s="45"/>
-      <c r="L136" s="45"/>
-      <c r="M136" s="45"/>
-      <c r="N136" s="45"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="43"/>
+      <c r="M136" s="43"/>
+      <c r="N136" s="43"/>
     </row>
     <row r="137" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K137" s="45"/>
-      <c r="L137" s="45"/>
-      <c r="M137" s="45"/>
-      <c r="N137" s="45"/>
+      <c r="K137" s="43"/>
+      <c r="L137" s="43"/>
+      <c r="M137" s="43"/>
+      <c r="N137" s="43"/>
     </row>
     <row r="138" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K138" s="45"/>
-      <c r="L138" s="45"/>
-      <c r="M138" s="45"/>
-      <c r="N138" s="45"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="43"/>
+      <c r="M138" s="43"/>
+      <c r="N138" s="43"/>
     </row>
     <row r="139" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K139" s="45"/>
-      <c r="L139" s="45"/>
-      <c r="M139" s="45"/>
-      <c r="N139" s="45"/>
+      <c r="K139" s="43"/>
+      <c r="L139" s="43"/>
+      <c r="M139" s="43"/>
+      <c r="N139" s="43"/>
     </row>
     <row r="140" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K140" s="45"/>
-      <c r="L140" s="45"/>
-      <c r="M140" s="45"/>
-      <c r="N140" s="45"/>
+      <c r="K140" s="43"/>
+      <c r="L140" s="43"/>
+      <c r="M140" s="43"/>
+      <c r="N140" s="43"/>
     </row>
     <row r="141" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K141" s="45"/>
-      <c r="L141" s="45"/>
-      <c r="M141" s="45"/>
-      <c r="N141" s="45"/>
+      <c r="K141" s="43"/>
+      <c r="L141" s="43"/>
+      <c r="M141" s="43"/>
+      <c r="N141" s="43"/>
     </row>
     <row r="142" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K142" s="45"/>
-      <c r="L142" s="45"/>
-      <c r="M142" s="45"/>
-      <c r="N142" s="45"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="43"/>
+      <c r="M142" s="43"/>
+      <c r="N142" s="43"/>
     </row>
     <row r="143" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K143" s="45"/>
-      <c r="L143" s="45"/>
-      <c r="M143" s="45"/>
-      <c r="N143" s="45"/>
-    </row>
-    <row r="144" spans="11:14" x14ac:dyDescent="0.2">
-      <c r="K144" s="45"/>
-      <c r="L144" s="45"/>
-      <c r="M144" s="45"/>
-      <c r="N144" s="45"/>
+      <c r="K143" s="43"/>
+      <c r="L143" s="43"/>
+      <c r="M143" s="43"/>
+      <c r="N143" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="61">
+    <mergeCell ref="A19:R19"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="M3:M7"/>
@@ -4547,21 +4711,26 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="E3:E7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="N16:N17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="O16:O17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
     <mergeCell ref="P16:P17"/>
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N3:N7"/>
     <mergeCell ref="O3:O7"/>
     <mergeCell ref="P3:P7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="L3:L7"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q3:Q7"/>
     <mergeCell ref="R3:R7"/>
@@ -4569,11 +4738,6 @@
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="R16:R17"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G3:G7"/>
@@ -4595,11 +4759,11 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A13:A17"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
